--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -174,6 +174,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>國泰金融控股股份有限公 司</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
   </si>
   <si>
     <t>大江生醫股份有限公司</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1182,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1207,13 +1219,22 @@
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1230,13 +1251,22 @@
       <c r="G2" s="2">
         <v>121190</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1253,13 +1283,22 @@
       <c r="G3" s="2">
         <v>63000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1276,13 +1315,22 @@
       <c r="G4" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1299,13 +1347,22 @@
       <c r="G5" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1322,13 +1379,22 @@
       <c r="G6" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -1345,13 +1411,22 @@
       <c r="G7" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -1368,13 +1443,22 @@
       <c r="G8" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -1391,13 +1475,22 @@
       <c r="G9" s="2">
         <v>50490</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1414,13 +1507,22 @@
       <c r="G10" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1437,13 +1539,22 @@
       <c r="G11" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1460,13 +1571,22 @@
       <c r="G12" s="2">
         <v>108540</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -1483,13 +1603,22 @@
       <c r="G13" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -1506,13 +1635,22 @@
       <c r="G14" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -1529,13 +1667,22 @@
       <c r="G15" s="2">
         <v>4500</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -1552,13 +1699,22 @@
       <c r="G16" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -1575,13 +1731,22 @@
       <c r="G17" s="2">
         <v>610</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -1597,6 +1762,15 @@
       </c>
       <c r="G18" s="2">
         <v>20000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -1614,16 +1788,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1631,10 +1805,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1646,10 +1820,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -1661,10 +1835,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1676,10 +1850,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -1691,16 +1865,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1708,10 +1882,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -1723,10 +1897,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -1738,10 +1912,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1753,10 +1927,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -1768,10 +1942,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1783,10 +1957,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -1798,10 +1972,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1813,10 +1987,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -1828,10 +2002,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -1843,10 +2017,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -1858,10 +2032,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
   <si>
     <t>土地坐落</t>
   </si>
@@ -174,6 +174,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -183,7 +186,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公 司</t>
+    <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
     <t>聯強國際股份有限公司</t>
@@ -192,28 +195,28 @@
     <t>敦泰科技股份有限公司</t>
   </si>
   <si>
-    <t>國喬石油化學股份有限公 司</t>
+    <t>國喬石油化學股份有限公司</t>
   </si>
   <si>
     <t>東元電機股份有限公司</t>
   </si>
   <si>
-    <t>南僑化學工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>鴻準精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>正崴精密工業股份有限公 司</t>
+    <t>南僑化學工業股份有限公司</t>
+  </si>
+  <si>
+    <t>鴻準精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>正崴精密工業股份有限公司</t>
   </si>
   <si>
     <t>義隆電子股份有限公司</t>
   </si>
   <si>
-    <t>富邦金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>新光金融控股股份有限公 司</t>
+    <t>富邦金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>新光金融控股股份有限公司</t>
   </si>
   <si>
     <t>建漢科技股份有限公司</t>
@@ -222,13 +225,16 @@
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
-    <t>碩禾電子材料股份有限公 司</t>
+    <t>碩禾電子材料股份有限公司</t>
   </si>
   <si>
     <t>南亞電路板股份有限公司</t>
   </si>
   <si>
     <t>大江生醫股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-12</t>
@@ -1194,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1228,13 +1234,16 @@
       <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1252,21 +1261,24 @@
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1284,21 +1296,24 @@
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1316,21 +1331,24 @@
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1348,21 +1366,24 @@
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1380,21 +1401,24 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -1412,21 +1436,24 @@
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -1444,21 +1471,24 @@
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -1476,21 +1506,24 @@
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="2">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1508,21 +1541,24 @@
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1540,21 +1576,24 @@
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="2">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1572,21 +1611,24 @@
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -1604,21 +1646,24 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -1636,21 +1681,24 @@
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -1668,21 +1716,24 @@
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="2">
+        <v>72</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -1700,21 +1751,24 @@
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2">
+        <v>72</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -1732,21 +1786,24 @@
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="2">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -1764,12 +1821,15 @@
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="2">
+        <v>72</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2">
         <v>1701</v>
       </c>
     </row>
@@ -1788,16 +1848,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1805,10 +1865,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1820,10 +1880,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -1835,10 +1895,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1850,10 +1910,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -1865,16 +1925,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1882,10 +1942,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -1897,10 +1957,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -1912,10 +1972,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1927,10 +1987,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -1942,10 +2002,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1957,10 +2017,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -1972,10 +2032,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1987,10 +2047,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -2002,10 +2062,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -2017,10 +2077,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -2032,10 +2092,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="107">
   <si>
     <t>土地坐落</t>
   </si>
@@ -177,6 +177,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -186,6 +189,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
@@ -237,7 +246,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmp93a21</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1200,13 +1215,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1237,13 +1252,22 @@
       <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1261,24 +1285,33 @@
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1296,24 +1329,33 @@
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1331,24 +1373,33 @@
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1366,24 +1417,33 @@
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1401,24 +1461,33 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -1436,24 +1505,33 @@
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -1471,24 +1549,33 @@
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="2">
+        <v>76</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -1506,24 +1593,33 @@
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="2">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1541,24 +1637,33 @@
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="2">
         <v>72</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1576,24 +1681,33 @@
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1611,24 +1725,33 @@
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -1646,24 +1769,33 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -1681,24 +1813,33 @@
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -1716,24 +1857,33 @@
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2">
+        <v>76</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -1751,24 +1901,33 @@
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2">
+        <v>76</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -1786,24 +1945,33 @@
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="2">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -1821,16 +1989,25 @@
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="2">
+        <v>76</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2">
         <v>1701</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1848,16 +2025,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1865,10 +2042,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1880,10 +2057,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -1895,10 +2072,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1910,10 +2087,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -1925,16 +2102,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1942,10 +2119,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -1957,10 +2134,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -1972,10 +2149,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1987,10 +2164,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -2002,10 +2179,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -2017,10 +2194,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -2032,10 +2209,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -2047,10 +2224,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -2062,10 +2239,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -2077,10 +2254,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -2092,10 +2269,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,9 +19,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="107">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08830000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08910000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08920000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08930000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08930001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>周麗容</t>
+  </si>
+  <si>
+    <t>92年09月09日.</t>
+  </si>
+  <si>
+    <t>92年09月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>王進士</t>
+  </si>
+  <si>
+    <t>tmp93a21</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,52 +132,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市花圜段0883-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段0891 -0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段0892-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段0893-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0893-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>周麗容</t>
-  </si>
-  <si>
-    <t>92年09月 09日.</t>
-  </si>
-  <si>
-    <t>92年09月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段01742-000 建號</t>
-  </si>
-  <si>
-    <t>100 年 09 月09日</t>
+    <t>屏東縣屏東市花園段01742000建號</t>
+  </si>
+  <si>
+    <t>100年09月09日</t>
   </si>
   <si>
     <t>改建</t>
   </si>
   <si>
-    <t>2，581,400</t>
+    <t>2581400</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -102,13 +156,10 @@
     <t>HONDA</t>
   </si>
   <si>
-    <t>王進士</t>
-  </si>
-  <si>
-    <t>101 年 02 月10曰</t>
-  </si>
-  <si>
-    <t>101 年 04 月02日</t>
+    <t>101年02月10曰</t>
+  </si>
+  <si>
+    <t>101年04月02日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -123,22 +174,22 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>屏東林森路郵局（第2支 局）</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東園分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行屏東分 行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東圜分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行屏東分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分 行</t>
+    <t>屏東林森路郵局（第2支局）</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東圜分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
   </si>
   <si>
     <t>元大商業銀行屏東分行</t>
@@ -156,12 +207,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -174,27 +219,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
@@ -246,15 +270,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-12</t>
-  </si>
-  <si>
-    <t>tmp93a21</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -337,9 +352,6 @@
   </si>
   <si>
     <t>長期看護終身險</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
 </sst>
 </file>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,134 +738,260 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2">
         <v>17</v>
       </c>
     </row>
@@ -872,25 +1010,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -898,25 +1036,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>586.41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -934,22 +1072,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -957,19 +1095,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>1029000</v>
@@ -980,19 +1118,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>1339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>900000</v>
@@ -1013,19 +1151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1033,16 +1171,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>190953</v>
@@ -1053,16 +1191,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>18003</v>
@@ -1073,16 +1211,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>215914</v>
@@ -1093,16 +1231,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>920727</v>
@@ -1113,16 +1251,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>247040</v>
@@ -1133,16 +1271,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
         <v>277772</v>
@@ -1153,16 +1291,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>992345</v>
@@ -1173,16 +1311,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>938604</v>
@@ -1193,16 +1331,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>397543</v>
@@ -1223,43 +1361,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1267,10 +1405,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>12119</v>
@@ -1279,28 +1417,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>1701</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
         <v>64</v>
@@ -1311,10 +1449,10 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>6300</v>
@@ -1323,28 +1461,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>1701</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
         <v>65</v>
@@ -1355,10 +1493,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>1000</v>
@@ -1367,28 +1505,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>1701</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
         <v>66</v>
@@ -1399,10 +1537,10 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>10000</v>
@@ -1411,28 +1549,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>1701</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
         <v>67</v>
@@ -1443,10 +1581,10 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1455,28 +1593,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>1701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
         <v>68</v>
@@ -1487,10 +1625,10 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>10000</v>
@@ -1499,28 +1637,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <v>1701</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
         <v>69</v>
@@ -1531,10 +1669,10 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
@@ -1543,28 +1681,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2">
         <v>1701</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
         <v>70</v>
@@ -1575,10 +1713,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>5049</v>
@@ -1587,28 +1725,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>1701</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
         <v>71</v>
@@ -1619,10 +1757,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>10000</v>
@@ -1631,28 +1769,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2">
         <v>1701</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
         <v>72</v>
@@ -1663,10 +1801,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>10000</v>
@@ -1675,28 +1813,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2">
         <v>1701</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
         <v>74</v>
@@ -1707,10 +1845,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>10854</v>
@@ -1719,28 +1857,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2">
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
         <v>1701</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2">
         <v>75</v>
@@ -1751,10 +1889,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>20000</v>
@@ -1763,28 +1901,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
         <v>1701</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N13" s="2">
         <v>76</v>
@@ -1795,10 +1933,10 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>15000</v>
@@ -1807,28 +1945,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2">
         <v>1701</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2">
         <v>77</v>
@@ -1839,10 +1977,10 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>450</v>
@@ -1851,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2">
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2">
         <v>1701</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N15" s="2">
         <v>78</v>
@@ -1883,10 +2021,10 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>3000</v>
@@ -1895,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2">
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2">
         <v>1701</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N16" s="2">
         <v>79</v>
@@ -1927,10 +2065,10 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>61</v>
@@ -1939,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2">
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2">
         <v>1701</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2">
         <v>80</v>
@@ -1971,10 +2109,10 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>2000</v>
@@ -1983,28 +2121,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2">
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L18" s="2">
         <v>1701</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N18" s="2">
         <v>81</v>
@@ -2025,16 +2163,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2042,13 +2180,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2057,13 +2195,13 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2072,13 +2210,13 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2087,13 +2225,13 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2102,30 +2240,28 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2134,13 +2270,13 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2149,13 +2285,13 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2164,13 +2300,13 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2179,13 +2315,13 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2194,13 +2330,13 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2209,13 +2345,13 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2224,13 +2360,13 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2239,13 +2375,13 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -2254,13 +2390,13 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -2269,13 +2405,13 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
     </row>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣屏東市花圜段08830000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣屏東市花圜段08910000地號</t>
@@ -84,9 +87,6 @@
     <t>周麗容</t>
   </si>
   <si>
-    <t>92年09月09日.</t>
-  </si>
-  <si>
     <t>92年09月09日</t>
   </si>
   <si>
@@ -111,27 +111,6 @@
     <t>tmp93a21</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣屏東市花園段01742000建號</t>
   </si>
   <si>
@@ -144,15 +123,6 @@
     <t>2581400</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HONDA</t>
   </si>
   <si>
@@ -162,21 +132,15 @@
     <t>101年04月02日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>屏東林森路郵局（第2支局）</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行東園分行</t>
   </si>
   <si>
@@ -198,15 +162,9 @@
     <t>玉山商業銀行屏東分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -216,12 +174,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>國泰金融控股股份有限公司</t>
-  </si>
-  <si>
     <t>聯強國際股份有限公司</t>
   </si>
   <si>
@@ -270,21 +222,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>臺銀人壽</t>
   </si>
   <si>
+    <t>美麗人生萬能保險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -304,9 +247,6 @@
   </si>
   <si>
     <t>中華郵政</t>
-  </si>
-  <si>
-    <t>美麗人生萬能保險</t>
   </si>
   <si>
     <t>牛轉錢坤萬能保險</t>
@@ -710,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,25 +699,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -804,24 +750,30 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -851,24 +803,30 @@
         <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -898,24 +856,30 @@
         <v>29</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -945,54 +909,13 @@
         <v>29</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>190</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1701</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1002,59 +925,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>586.41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>586.41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +961,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1072,67 +969,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1029000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
-        <v>2354</v>
+        <v>1339</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2">
-        <v>1029000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1339</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1143,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,198 +1025,178 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>190953</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>190953</v>
+        <v>18003</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>18003</v>
+        <v>215914</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>215914</v>
+        <v>920727</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
-        <v>920727</v>
+        <v>247040</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="2">
-        <v>247040</v>
+        <v>277772</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2">
-        <v>277772</v>
+        <v>992345</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2">
-        <v>992345</v>
+        <v>938604</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>938604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2">
         <v>397543</v>
       </c>
     </row>
@@ -1353,7 +1207,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1367,16 +1221,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1402,28 +1256,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>12119</v>
+        <v>6300</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
-        <v>121190</v>
+        <v>63000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1441,33 +1295,33 @@
         <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>6300</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
-        <v>63000</v>
+        <v>10000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1485,33 +1339,33 @@
         <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1529,15 +1383,15 @@
         <v>29</v>
       </c>
       <c r="N4" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -1549,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1573,15 +1427,15 @@
         <v>29</v>
       </c>
       <c r="N5" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -1593,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1617,33 +1471,33 @@
         <v>29</v>
       </c>
       <c r="N6" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1661,33 +1515,33 @@
         <v>29</v>
       </c>
       <c r="N7" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>500</v>
+        <v>5049</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
-        <v>5000</v>
+        <v>50490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1705,33 +1559,33 @@
         <v>29</v>
       </c>
       <c r="N8" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2">
-        <v>5049</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
-        <v>50490</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1749,15 +1603,15 @@
         <v>29</v>
       </c>
       <c r="N9" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -1769,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1793,33 +1647,33 @@
         <v>29</v>
       </c>
       <c r="N10" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>10000</v>
+        <v>10854</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
-        <v>100000</v>
+        <v>108540</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1837,33 +1691,33 @@
         <v>29</v>
       </c>
       <c r="N11" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>10854</v>
+        <v>20000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>108540</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1881,33 +1735,33 @@
         <v>29</v>
       </c>
       <c r="N12" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1925,33 +1779,33 @@
         <v>29</v>
       </c>
       <c r="N13" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>15000</v>
+        <v>450</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
-        <v>150000</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
@@ -1969,33 +1823,33 @@
         <v>29</v>
       </c>
       <c r="N14" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2">
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>26</v>
@@ -2013,33 +1867,33 @@
         <v>29</v>
       </c>
       <c r="N15" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>3000</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2">
-        <v>30000</v>
+        <v>610</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>26</v>
@@ -2057,33 +1911,33 @@
         <v>29</v>
       </c>
       <c r="N16" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>61</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
-        <v>610</v>
+        <v>20000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>26</v>
@@ -2101,50 +1955,6 @@
         <v>29</v>
       </c>
       <c r="N17" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>81</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1701</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="2">
         <v>81</v>
       </c>
     </row>
@@ -2155,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2163,27 +1973,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -2192,43 +2000,43 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
@@ -2237,13 +2045,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2252,168 +2060,153 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>122</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市花圜段08830000地號</t>
+  </si>
+  <si>
     <t>屏東縣屏東市花圜段08910000地號</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>周麗容</t>
   </si>
   <si>
+    <t>92年09月09日.</t>
+  </si>
+  <si>
     <t>92年09月09日</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
     <t>聯強國際股份有限公司</t>
@@ -650,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,213 +717,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1701</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1701</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>1701</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>1701</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>190</v>
       </c>
     </row>
@@ -925,33 +987,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
         <v>586.41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>586.41</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -969,19 +1111,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1">
         <v>2354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1">
         <v>1029000</v>
@@ -989,24 +1131,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2354</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1029000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
         <v>1339</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1017,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,16 +1190,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>190953</v>
@@ -1042,161 +1207,181 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>18003</v>
+        <v>190953</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>215914</v>
+        <v>18003</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>920727</v>
+        <v>215914</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>247040</v>
+        <v>920727</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>277772</v>
+        <v>247040</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>992345</v>
+        <v>277772</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>938604</v>
+        <v>992345</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>938604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
         <v>397543</v>
       </c>
     </row>
@@ -1207,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1221,13 +1406,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1256,145 +1441,145 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>6300</v>
+        <v>12119</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>63000</v>
+        <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>1701</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>1000</v>
+        <v>6300</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>10000</v>
+        <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>1701</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>1701</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>10000</v>
@@ -1403,42 +1588,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1701</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1447,174 +1632,174 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>1701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>1701</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>5049</v>
+        <v>500</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>50490</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>1701</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
-        <v>10000</v>
+        <v>5049</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>100000</v>
+        <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>1701</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>10000</v>
@@ -1623,338 +1808,382 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>1701</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>10854</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>108540</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>1701</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>20000</v>
+        <v>10854</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>200000</v>
+        <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2">
         <v>1701</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2">
         <v>1701</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
-        <v>4500</v>
+        <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2">
         <v>1701</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2">
-        <v>30000</v>
+        <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2">
         <v>1701</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
-        <v>61</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2">
-        <v>610</v>
+        <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2">
         <v>1701</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
-        <v>2000</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2">
-        <v>20000</v>
+        <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2">
         <v>1701</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="2">
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="2">
         <v>81</v>
       </c>
     </row>
@@ -1965,7 +2194,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1973,240 +2202,255 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
+        <v>121</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>122</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>2581400</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HONDA</t>
@@ -1103,38 +1106,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>2354</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1029000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1143,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1151,13 +1175,34 @@
       <c r="G2" s="2">
         <v>1029000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>1339</v>
@@ -1166,13 +1211,34 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>900000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1190,13 +1256,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1210,13 +1276,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1230,13 +1296,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1250,13 +1316,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1270,13 +1336,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1290,13 +1356,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1310,13 +1376,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1330,13 +1396,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1350,13 +1416,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1370,13 +1436,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1406,13 +1472,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1444,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1456,13 +1522,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1488,7 +1554,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1500,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1532,7 +1598,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1544,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1576,7 +1642,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -1588,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1620,7 +1686,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1632,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1664,7 +1730,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -1676,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1708,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1720,13 +1786,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1752,7 +1818,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1764,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1796,7 +1862,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1808,13 +1874,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1840,7 +1906,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -1852,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1884,7 +1950,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1896,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1928,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -1940,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -1972,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1984,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
@@ -2016,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -2028,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2">
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
@@ -2060,7 +2126,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -2072,13 +2138,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2">
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>28</v>
@@ -2104,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -2116,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2">
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>28</v>
@@ -2148,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -2160,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" s="2">
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>28</v>
@@ -2202,10 +2268,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2217,10 +2283,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2232,10 +2298,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2247,10 +2313,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2262,10 +2328,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2277,10 +2343,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2292,10 +2358,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2307,10 +2373,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2322,10 +2388,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -2337,10 +2403,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -2352,10 +2418,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -2367,10 +2433,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -2382,10 +2448,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -2397,10 +2463,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -2412,10 +2478,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -2427,10 +2493,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -2442,10 +2508,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +129,9 @@
     <t>2581400</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>101年04月02日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>屏東林森路郵局（第2支局）</t>
@@ -1072,7 +1078,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1158,7 +1164,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1167,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1176,7 +1182,7 @@
         <v>1029000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1202,7 +1208,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1339</v>
@@ -1211,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1220,7 +1226,7 @@
         <v>900000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1256,13 +1262,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1276,13 +1282,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1296,13 +1302,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1316,13 +1322,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1336,13 +1342,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1356,13 +1362,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1376,13 +1382,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1396,13 +1402,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1416,13 +1422,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1436,13 +1442,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1472,13 +1478,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1510,7 +1516,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1522,13 +1528,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1554,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1566,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1598,7 +1604,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1610,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1642,7 +1648,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -1654,13 +1660,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1686,7 +1692,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1698,13 +1704,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1730,7 +1736,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -1742,13 +1748,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1774,7 +1780,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1786,13 +1792,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1818,7 +1824,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1830,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1862,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1874,13 +1880,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1906,7 +1912,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -1918,13 +1924,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1950,7 +1956,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1962,13 +1968,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1994,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -2006,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2038,7 +2044,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -2050,13 +2056,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
@@ -2082,7 +2088,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -2094,13 +2100,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2">
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
@@ -2126,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -2138,13 +2144,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2">
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>28</v>
@@ -2170,7 +2176,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -2182,13 +2188,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2">
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>28</v>
@@ -2214,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -2226,13 +2232,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2">
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>28</v>
@@ -2268,10 +2274,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2283,10 +2289,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2298,10 +2304,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2313,10 +2319,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2328,10 +2334,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2343,10 +2349,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2358,10 +2364,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2373,10 +2379,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2388,10 +2394,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -2403,10 +2409,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -2418,10 +2424,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -2433,10 +2439,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -2448,10 +2454,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -2463,10 +2469,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -2478,10 +2484,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -2493,10 +2499,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -2508,10 +2514,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -147,46 +147,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>屏東林森路郵局（第2支局）</t>
   </si>
   <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東圜分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行屏東分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行東園分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東圜分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國泰金融控股股份有限公司</t>
@@ -1254,13 +1263,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1271,24 +1280,45 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>190953</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1296,19 +1326,40 @@
       <c r="F2" s="2">
         <v>190953</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1316,19 +1367,40 @@
       <c r="F3" s="2">
         <v>18003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1336,19 +1408,40 @@
       <c r="F4" s="2">
         <v>215914</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1356,19 +1449,40 @@
       <c r="F5" s="2">
         <v>920727</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1376,19 +1490,40 @@
       <c r="F6" s="2">
         <v>247040</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1396,19 +1531,40 @@
       <c r="F7" s="2">
         <v>277772</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1416,19 +1572,40 @@
       <c r="F8" s="2">
         <v>992345</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1436,25 +1613,67 @@
       <c r="F9" s="2">
         <v>938604</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>397543</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1697,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1516,7 +1735,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1528,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>121190</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1560,7 +1779,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1572,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>63000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1604,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1616,13 +1835,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1648,7 +1867,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
@@ -1660,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1692,7 +1911,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1704,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1736,7 +1955,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -1748,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2">
         <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1780,7 +1999,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1792,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2">
         <v>5000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1824,7 +2043,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1836,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
         <v>50490</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1868,7 +2087,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1880,13 +2099,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
         <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1912,7 +2131,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -1924,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1956,7 +2175,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1968,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>108540</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -2000,7 +2219,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -2012,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2044,7 +2263,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -2056,13 +2275,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
@@ -2088,7 +2307,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -2100,13 +2319,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2">
         <v>4500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
@@ -2132,7 +2351,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -2144,13 +2363,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2">
         <v>30000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>28</v>
@@ -2176,7 +2395,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -2188,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
         <v>610</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>28</v>
@@ -2220,7 +2439,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -2232,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2">
         <v>20000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>28</v>
@@ -2274,10 +2493,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2289,10 +2508,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2304,10 +2523,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2319,10 +2538,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2334,10 +2553,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2349,10 +2568,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2364,10 +2583,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2379,10 +2598,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2394,10 +2613,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -2409,10 +2628,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -2424,10 +2643,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -2439,10 +2658,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -2454,10 +2673,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -2469,10 +2688,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -2484,10 +2703,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -2499,10 +2718,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -2514,10 +2733,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
+++ b/legislator/property/output/normal/王進士_2013-12-12_財產申報表_tmp93a21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -249,33 +249,36 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>臺銀人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
+    <t>國華人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
     <t>美麗人生萬能保險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
-    <t>國華人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
     <t>牛轉錢坤萬能保險</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
   </si>
   <si>
     <t>長期看護終身險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2485,55 +2491,115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
@@ -2541,14 +2607,34 @@
         <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
@@ -2556,14 +2642,34 @@
         <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
@@ -2571,14 +2677,34 @@
         <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>111</v>
       </c>
@@ -2586,14 +2712,34 @@
         <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>112</v>
       </c>
@@ -2601,14 +2747,34 @@
         <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>113</v>
       </c>
@@ -2616,14 +2782,34 @@
         <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>115</v>
       </c>
@@ -2631,14 +2817,34 @@
         <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>116</v>
       </c>
@@ -2646,14 +2852,34 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>117</v>
       </c>
@@ -2661,14 +2887,34 @@
         <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>118</v>
       </c>
@@ -2676,14 +2922,34 @@
         <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>119</v>
       </c>
@@ -2691,14 +2957,34 @@
         <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>120</v>
       </c>
@@ -2706,14 +2992,34 @@
         <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>121</v>
       </c>
@@ -2721,14 +3027,34 @@
         <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>122</v>
       </c>
@@ -2736,12 +3062,32 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
